--- a/JAMppdf/expdata/50002.xlsx
+++ b/JAMppdf/expdata/50002.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/pidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/JAMppdf/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C630976-5877-BA4B-BE84-A115827E5B98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC04E97-542F-7E4E-933D-D13EECD418E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="26700" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="10">
   <si>
     <t>Q2</t>
   </si>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E111"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,16 +505,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-2.080442023550293E-2</v>
+        <v>-66.690779349001033</v>
       </c>
       <c r="B2">
-        <v>8.0440825724056073E-2</v>
+        <v>264.20615675296182</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -528,16 +528,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-2.1056945812282849E-2</v>
+        <v>-71.949078975492981</v>
       </c>
       <c r="B3">
-        <v>7.273993302678694E-2</v>
+        <v>264.87688100384833</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -551,16 +551,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-2.0845316129908819E-2</v>
+        <v>-76.062973653072817</v>
       </c>
       <c r="B4">
-        <v>6.9692404597078594E-2</v>
+        <v>266.66243295669051</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -574,16 +574,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-2.065582722590013E-2</v>
+        <v>-83.063892989254498</v>
       </c>
       <c r="B5">
-        <v>6.7831868307307433E-2</v>
+        <v>269.94153891356149</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-2.0497134580917838E-2</v>
+        <v>-85.14196990516804</v>
       </c>
       <c r="B6">
-        <v>6.6511770783335464E-2</v>
+        <v>270.93535761856958</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -620,16 +620,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-2.036261776069833E-2</v>
+        <v>-87.804891419963411</v>
       </c>
       <c r="B7">
-        <v>6.5497746876917104E-2</v>
+        <v>272.21653934217028</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -643,16 +643,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>-2.024649461593693E-2</v>
+        <v>-91.449323287013456</v>
       </c>
       <c r="B8">
-        <v>6.4679402987079526E-2</v>
+        <v>273.95739177094919</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -666,16 +666,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-2.0144598022798488E-2</v>
+        <v>-45.844315158672202</v>
       </c>
       <c r="B9">
-        <v>6.3996303493183249E-2</v>
+        <v>168.16024808856531</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.05</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -689,16 +689,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>-2.005395583286319E-2</v>
+        <v>-50.619861216320999</v>
       </c>
       <c r="B10">
-        <v>6.3411920514485035E-2</v>
+        <v>170.01945634236009</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0.05</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -712,16 +712,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>-1.99327461570795E-2</v>
+        <v>-54.10885418340365</v>
       </c>
       <c r="B11">
-        <v>6.2678196481603221E-2</v>
+        <v>171.80948168647021</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0.05</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -735,16 +735,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>-2.1072044684376762E-2</v>
+        <v>-59.841216670599138</v>
       </c>
       <c r="B12">
-        <v>8.3709111430088509E-2</v>
+        <v>174.7862590928666</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -758,16 +758,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-2.114510180494155E-2</v>
+        <v>-61.509121927610231</v>
       </c>
       <c r="B13">
-        <v>7.4309494276362659E-2</v>
+        <v>175.65446308087769</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -781,16 +781,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>-2.0876486573630951E-2</v>
+        <v>-63.629077588357028</v>
       </c>
       <c r="B14">
-        <v>7.0726063233100989E-2</v>
+        <v>176.7596124766755</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -804,16 +804,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>-2.065609176887041E-2</v>
+        <v>-66.481781178464331</v>
       </c>
       <c r="B15">
-        <v>6.856800758687856E-2</v>
+        <v>178.23900015677171</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -827,16 +827,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-2.0477243782884871E-2</v>
+        <v>-31.7194628546867</v>
       </c>
       <c r="B16">
-        <v>6.7049517984786589E-2</v>
+        <v>107.8381193265687</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -850,16 +850,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>-2.032824235538009E-2</v>
+        <v>-35.995911997249237</v>
       </c>
       <c r="B17">
-        <v>6.589001102600571E-2</v>
+        <v>110.2823318406104</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -873,16 +873,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>-2.0201061733343309E-2</v>
+        <v>-38.915940853356553</v>
       </c>
       <c r="B18">
-        <v>6.4958545258105502E-2</v>
+        <v>111.9937608809593</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -896,16 +896,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>-2.0090367701889909E-2</v>
+        <v>-43.552116092955579</v>
       </c>
       <c r="B19">
-        <v>6.4183912261604081E-2</v>
+        <v>114.6633347726915</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -919,16 +919,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>-1.9992512226559001E-2</v>
+        <v>-44.874859476977008</v>
       </c>
       <c r="B20">
-        <v>6.3523294694701304E-2</v>
+        <v>115.4200365958724</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -942,16 +942,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>-1.98623647744544E-2</v>
+        <v>-46.542692932666121</v>
       </c>
       <c r="B21">
-        <v>6.2696754152398476E-2</v>
+        <v>116.3735044217706</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -965,16 +965,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>-2.1281395592229711E-2</v>
+        <v>-48.753108414061053</v>
       </c>
       <c r="B22">
-        <v>8.6380614107021178E-2</v>
+        <v>117.6343442475879</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>0.06</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -988,16 +988,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>-2.119505606387169E-2</v>
+        <v>-22.172111037714711</v>
       </c>
       <c r="B23">
-        <v>7.5329830298103834E-2</v>
+        <v>69.840816714712403</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -1011,16 +1011,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>-2.087785650465749E-2</v>
+        <v>-25.935325441628951</v>
       </c>
       <c r="B24">
-        <v>7.1243316297082485E-2</v>
+        <v>72.519768509379873</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1034,16 +1034,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>-2.0631676480558778E-2</v>
+        <v>-28.342957241905701</v>
       </c>
       <c r="B25">
-        <v>6.8811151766434528E-2</v>
+        <v>74.113251701947945</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1057,16 +1057,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>-2.043628079898225E-2</v>
+        <v>-32.041499755659913</v>
       </c>
       <c r="B26">
-        <v>6.7112406505835234E-2</v>
+        <v>76.487902813403537</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>-2.027554414530831E-2</v>
+        <v>-33.076685168824241</v>
       </c>
       <c r="B27">
-        <v>6.5822211912885745E-2</v>
+        <v>77.145663193566747</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1103,16 +1103,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>-2.013950773253281E-2</v>
+        <v>-34.371751949718401</v>
       </c>
       <c r="B28">
-        <v>6.4790117872011041E-2</v>
+        <v>77.967150695346689</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1126,16 +1126,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>-2.0021840609498451E-2</v>
+        <v>-36.064962271291257</v>
       </c>
       <c r="B29">
-        <v>6.3934763559729269E-2</v>
+        <v>79.041889651632715</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1149,16 +1149,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>-1.9918321792123671E-2</v>
+        <v>-15.697835342509689</v>
       </c>
       <c r="B30">
-        <v>6.3207441676881942E-2</v>
+        <v>45.828804768769423</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0.06</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>-1.9781215177336931E-2</v>
+        <v>-18.949557486081801</v>
       </c>
       <c r="B31">
-        <v>6.2300398016039461E-2</v>
+        <v>48.539849235738849</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>0.06</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>-2.1448699866195738E-2</v>
+        <v>-20.903610186748342</v>
       </c>
       <c r="B32">
-        <v>8.8487848854994042E-2</v>
+        <v>49.9974918125003</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1218,16 +1218,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>-2.1220301381230031E-2</v>
+        <v>-23.811121694883429</v>
       </c>
       <c r="B33">
-        <v>7.5856329580876236E-2</v>
+        <v>52.092789437098368</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1241,16 +1241,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>-2.0861555085022031E-2</v>
+        <v>-24.60975599002294</v>
       </c>
       <c r="B34">
-        <v>7.1307155613801604E-2</v>
+        <v>52.661486883796748</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1264,16 +1264,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>-2.0593825992728451E-2</v>
+        <v>-25.601230233595039</v>
       </c>
       <c r="B35">
-        <v>6.8628738079404797E-2</v>
+        <v>53.365871331843763</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -1287,16 +1287,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>-2.0384842775532069E-2</v>
+        <v>-26.881929386110521</v>
       </c>
       <c r="B36">
-        <v>6.6770972340319062E-2</v>
+        <v>54.278289445260299</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1310,16 +1310,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>-2.021461302054995E-2</v>
+        <v>-11.2703542090859</v>
       </c>
       <c r="B37">
-        <v>6.5367246939965123E-2</v>
+        <v>30.601935098767171</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -1333,16 +1333,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>-2.0071507445662998E-2</v>
+        <v>-14.030529405017459</v>
       </c>
       <c r="B38">
-        <v>6.4248917576521306E-2</v>
+        <v>33.226462952851911</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1356,16 +1356,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>-1.994834152564905E-2</v>
+        <v>-15.590877670272089</v>
       </c>
       <c r="B39">
-        <v>6.3325238150971297E-2</v>
+        <v>34.53964459843403</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>-1.9840407427540958E-2</v>
+        <v>-17.84138193949023</v>
       </c>
       <c r="B40">
-        <v>6.2542097980284359E-2</v>
+        <v>36.368883120035427</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -1402,16 +1402,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>-1.9697933097811159E-2</v>
+        <v>-18.448170422936311</v>
       </c>
       <c r="B41">
-        <v>6.1568565520727737E-2</v>
+        <v>36.855909933359378</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -1425,16 +1425,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>-2.158669574333651E-2</v>
+        <v>-19.19575810423034</v>
       </c>
       <c r="B42">
-        <v>9.0064722973172431E-2</v>
+        <v>37.45425484040436</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>7.0000000000000007E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -1448,16 +1448,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>-2.123087707729681E-2</v>
+        <v>-20.15107037391277</v>
       </c>
       <c r="B43">
-        <v>7.5943731803384013E-2</v>
+        <v>38.221964789730961</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>7.0000000000000007E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -1471,16 +1471,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>-2.0836393068292339E-2</v>
+        <v>-8.2071188099597485</v>
       </c>
       <c r="B44">
-        <v>7.0979435289657472E-2</v>
+        <v>20.908287413619959</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -1494,16 +1494,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>-2.055057378708736E-2</v>
+        <v>-10.509479465523659</v>
       </c>
       <c r="B45">
-        <v>6.8086852313132482E-2</v>
+        <v>23.3731558699549</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -1517,16 +1517,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>-2.0330401998126579E-2</v>
+        <v>-11.73455722607784</v>
       </c>
       <c r="B46">
-        <v>6.6094285975563799E-2</v>
+        <v>24.536664952352659</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1540,16 +1540,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>-2.0152485659146239E-2</v>
+        <v>-13.44792449130407</v>
       </c>
       <c r="B47">
-        <v>6.459648047179925E-2</v>
+        <v>26.11038131368738</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -1563,16 +1563,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>-2.0003743556453919E-2</v>
+        <v>-13.90137927947794</v>
       </c>
       <c r="B48">
-        <v>6.3408165478756606E-2</v>
+        <v>26.52156185237514</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>-1.9876256191166831E-2</v>
+        <v>-14.455802582985831</v>
       </c>
       <c r="B49">
-        <v>6.2430113113264463E-2</v>
+        <v>27.022681486307519</v>
       </c>
       <c r="C49">
         <v>15</v>
       </c>
       <c r="D49">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -1609,16 +1609,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>-1.9764899924686431E-2</v>
+        <v>-15.15744786497795</v>
       </c>
       <c r="B50">
-        <v>6.1603377402728483E-2</v>
+        <v>27.65976893507375</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -1632,16 +1632,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>-1.961832347105108E-2</v>
+        <v>-6.0600450364893801</v>
       </c>
       <c r="B51">
-        <v>6.057905384075464E-2</v>
+        <v>14.70700474789825</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>7.0000000000000007E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -1655,16 +1655,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>-2.1705290583395868E-2</v>
+        <v>-7.9463355942083194</v>
       </c>
       <c r="B52">
-        <v>9.1146667158222144E-2</v>
+        <v>16.96276000528783</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -1678,16 +1678,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>-2.1234142755385359E-2</v>
+        <v>-8.8908616706952959</v>
       </c>
       <c r="B53">
-        <v>7.5646864398047783E-2</v>
+        <v>17.973295242118279</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -1701,16 +1701,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>-2.080864501489809E-2</v>
+        <v>-10.171758879751639</v>
       </c>
       <c r="B54">
-        <v>7.0321837023729142E-2</v>
+        <v>19.301740639886059</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
@@ -1724,16 +1724,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>-2.0507521566803012E-2</v>
+        <v>-10.504425634295799</v>
       </c>
       <c r="B55">
-        <v>6.7251324421583838E-2</v>
+        <v>19.642489723863569</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
@@ -1747,16 +1747,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>-2.0278079876160201E-2</v>
+        <v>-10.90801756706392</v>
       </c>
       <c r="B56">
-        <v>6.5151132458183658E-2</v>
+        <v>20.05453085246042</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -1770,16 +1770,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>-2.0093913568364451E-2</v>
+        <v>-11.414276831646839</v>
       </c>
       <c r="B57">
-        <v>6.3580982150031648E-2</v>
+        <v>20.57380082883191</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D57">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -1793,16 +1793,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>-1.994066873986599E-2</v>
+        <v>-4.5347950821950924</v>
       </c>
       <c r="B58">
-        <v>6.2340786857613337E-2</v>
+        <v>10.71259415332719</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
@@ -1816,16 +1816,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>-1.9809787784092758E-2</v>
+        <v>-6.0501998414208611</v>
       </c>
       <c r="B59">
-        <v>6.1323871647453183E-2</v>
+        <v>12.72363777280286</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>-1.96957890790673E-2</v>
+        <v>-6.7637334972958598</v>
       </c>
       <c r="B60">
-        <v>6.0467102526654763E-2</v>
+        <v>13.580750732140229</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -1862,16 +1862,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>-1.9546104146941742E-2</v>
+        <v>-7.7015896367477161</v>
       </c>
       <c r="B61">
-        <v>5.940937233186367E-2</v>
+        <v>14.67688334014897</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
@@ -1885,16 +1885,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>-2.1812072116856891E-2</v>
+        <v>-7.940479018150632</v>
       </c>
       <c r="B62">
-        <v>9.1770748591663301E-2</v>
+        <v>14.953069338519519</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>0.08</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -1908,16 +1908,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>-2.123535797621456E-2</v>
+        <v>-8.2279783750925688</v>
       </c>
       <c r="B63">
-        <v>7.5021262808811148E-2</v>
+        <v>15.28454331988617</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>0.08</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
@@ -1931,16 +1931,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>-2.0782628945733041E-2</v>
+        <v>-8.5856139401153015</v>
       </c>
       <c r="B64">
-        <v>6.9396667255165301E-2</v>
+        <v>15.69882708396497</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>0.08</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -1954,16 +1954,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>-2.046841318022815E-2</v>
+        <v>-3.4359072572679019</v>
       </c>
       <c r="B65">
-        <v>6.6188613070791255E-2</v>
+        <v>8.1128605618965519</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>-2.023121441366113E-2</v>
+        <v>-4.6261663298274147</v>
       </c>
       <c r="B66">
-        <v>6.4010941745937494E-2</v>
+        <v>9.8550143398184424</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -2000,16 +2000,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>-2.0041924326295452E-2</v>
+        <v>-5.1524848128008633</v>
       </c>
       <c r="B67">
-        <v>6.239247965250614E-2</v>
+        <v>10.56236664005111</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
@@ -2023,16 +2023,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>-1.9885061100759119E-2</v>
+        <v>-5.8223369353820438</v>
       </c>
       <c r="B68">
-        <v>6.1120371725024741E-2</v>
+        <v>11.443306796094589</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -2046,16 +2046,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>-1.97515069988527E-2</v>
+        <v>-5.9895141987871376</v>
       </c>
       <c r="B69">
-        <v>6.0081661709581673E-2</v>
+        <v>11.661499525718179</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -2069,16 +2069,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>-1.9635468820034491E-2</v>
+        <v>-6.1890026022396079</v>
       </c>
       <c r="B70">
-        <v>5.9209754645075927E-2</v>
+        <v>11.92150564907532</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -2092,16 +2092,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>-1.948344431384768E-2</v>
+        <v>-6.4351098418397896</v>
       </c>
       <c r="B71">
-        <v>5.8137670889221407E-2</v>
+        <v>12.243893388160251</v>
       </c>
       <c r="C71">
         <v>20</v>
       </c>
       <c r="D71">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
@@ -2115,16 +2115,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>-2.191271618279254E-2</v>
+        <v>-2.6314958062253488</v>
       </c>
       <c r="B72">
-        <v>9.1975790084316278E-2</v>
+        <v>6.3934803186473541</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
@@ -2138,16 +2138,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>-2.123812762502874E-2</v>
+        <v>-3.5413332307644492</v>
       </c>
       <c r="B73">
-        <v>7.4123716202337278E-2</v>
+        <v>7.8542918892022309</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
@@ -2161,16 +2161,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>-2.0761146703547409E-2</v>
+        <v>-3.9184013097562689</v>
       </c>
       <c r="B74">
-        <v>6.8267519686317932E-2</v>
+        <v>8.4198262952197425</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="D74">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -2184,16 +2184,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>-2.0435567791765211E-2</v>
+        <v>-4.382290820882643</v>
       </c>
       <c r="B75">
-        <v>6.4966499480547543E-2</v>
+        <v>9.1062538131735575</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D75">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
@@ -2207,16 +2207,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>-2.019178656544314E-2</v>
+        <v>-4.4955404468987092</v>
       </c>
       <c r="B76">
-        <v>6.2744475356498686E-2</v>
+        <v>9.2734505499552906</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -2230,16 +2230,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>-1.9998241795518141E-2</v>
+        <v>-4.6294250557353962</v>
       </c>
       <c r="B77">
-        <v>6.110401758938911E-2</v>
+        <v>9.4713058196872648</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -2253,16 +2253,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>-1.9838438879397211E-2</v>
+        <v>-4.7931444408316981</v>
       </c>
       <c r="B78">
-        <v>5.9821794003773021E-2</v>
+        <v>9.7146945333517642</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D78">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
@@ -2276,16 +2276,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>-1.9702761789049981E-2</v>
+        <v>-2.0311203455594038</v>
       </c>
       <c r="B79">
-        <v>5.8779868178744983E-2</v>
+        <v>5.2279229722577831</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>8.5000000000000006E-2</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -2299,16 +2299,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>-1.958514245125767E-2</v>
+        <v>-2.7034784769766071</v>
       </c>
       <c r="B80">
-        <v>5.7908994388678012E-2</v>
+        <v>6.4064046515218074</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>8.5000000000000006E-2</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
@@ -2322,16 +2322,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>-1.9431363716833319E-2</v>
+        <v>-2.9637767144122371</v>
       </c>
       <c r="B81">
-        <v>5.6843179384213127E-2</v>
+        <v>6.841352586921686</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>8.5000000000000006E-2</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
@@ -2345,16 +2345,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>-2.2011318812854341E-2</v>
+        <v>-3.2723964935371659</v>
       </c>
       <c r="B82">
-        <v>9.1802508322873677E-2</v>
+        <v>7.3557512965020226</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -2368,16 +2368,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>-2.12447511892273E-2</v>
+        <v>-3.3458915803851821</v>
       </c>
       <c r="B83">
-        <v>7.3012747524616631E-2</v>
+        <v>7.4789178105221126</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D83">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -2391,16 +2391,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>-2.074582530877616E-2</v>
+        <v>-3.4318544934295279</v>
       </c>
       <c r="B84">
-        <v>6.6999788957665896E-2</v>
+        <v>7.6236263003458031</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -2414,16 +2414,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>-2.041021339166699E-2</v>
+        <v>-3.5358898033610551</v>
       </c>
       <c r="B85">
-        <v>6.3654551668347173E-2</v>
+        <v>7.800135724313864</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D85">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>-2.016074694384698E-2</v>
+        <v>-1.5719364511457681</v>
       </c>
       <c r="B86">
-        <v>6.1424207156314657E-2</v>
+        <v>4.4076366755788481</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
@@ -2460,16 +2460,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>-1.996360695300825E-2</v>
+        <v>-2.0476531694109559</v>
       </c>
       <c r="B87">
-        <v>5.9790239205820703E-2</v>
+        <v>5.3125012638980227</v>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
@@ -2483,16 +2483,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>-1.9801376145305159E-2</v>
+        <v>-2.218699359225238</v>
       </c>
       <c r="B88">
-        <v>5.8521386977587977E-2</v>
+        <v>5.6299596061606287</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -2506,16 +2506,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>-1.9663988514697309E-2</v>
+        <v>-2.4130884464612401</v>
       </c>
       <c r="B89">
-        <v>5.7496179244410847E-2</v>
+        <v>5.9948910470334171</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -2529,16 +2529,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>-1.9545129726449891E-2</v>
+        <v>-2.458020007617824</v>
       </c>
       <c r="B90">
-        <v>5.6643618636054313E-2</v>
+        <v>6.080599871134293</v>
       </c>
       <c r="C90">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
@@ -2552,16 +2552,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>-1.9390034344360471E-2</v>
+        <v>-2.509886127916781</v>
       </c>
       <c r="B91">
-        <v>5.5606004435880277E-2</v>
+        <v>6.1804760772399874</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D91">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
@@ -2575,16 +2575,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>-2.2110671301746269E-2</v>
+        <v>-2.5718063972466139</v>
       </c>
       <c r="B92">
-        <v>9.1293676496711149E-2</v>
+        <v>6.3010814907244006</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D92">
-        <v>9.5000000000000001E-2</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
@@ -2598,16 +2598,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>-2.1256501241837839E-2</v>
+        <v>-1.209975244184996</v>
       </c>
       <c r="B93">
-        <v>7.1749006985999869E-2</v>
+        <v>3.797472056663882</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
@@ -2621,16 +2621,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>-2.073738587284547E-2</v>
+        <v>-1.527705575667031</v>
       </c>
       <c r="B94">
-        <v>6.5660975708365085E-2</v>
+        <v>4.4446159299193724</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -2644,16 +2644,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>-2.039274767560759E-2</v>
+        <v>-1.632666305833079</v>
       </c>
       <c r="B95">
-        <v>6.2324264199240142E-2</v>
+        <v>4.6583837793833327</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
@@ -2667,16 +2667,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>-2.0138270107009869E-2</v>
+        <v>-1.7458298363610441</v>
       </c>
       <c r="B96">
-        <v>6.012427388125851E-2</v>
+        <v>4.8954398684182792</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -2690,16 +2690,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>-1.9938026649178091E-2</v>
+        <v>-1.7709714215178061</v>
       </c>
       <c r="B97">
-        <v>5.8527142342260932E-2</v>
+        <v>4.9497115480942586</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -2713,16 +2713,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>-1.9773746814029089E-2</v>
+        <v>-1.7994705072043351</v>
       </c>
       <c r="B98">
-        <v>5.7296507046770487E-2</v>
+        <v>5.0122529721448004</v>
       </c>
       <c r="C98">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D98">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -2736,16 +2736,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>-1.963495181657314E-2</v>
+        <v>-1.8327964280900759</v>
       </c>
       <c r="B99">
-        <v>5.6308963686259983E-2</v>
+        <v>5.0867155277132783</v>
       </c>
       <c r="C99">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -2759,16 +2759,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>-1.9515103051495519E-2</v>
+        <v>-0.91476473884675058</v>
       </c>
       <c r="B100">
-        <v>5.5492758487787577E-2</v>
+        <v>3.3072083396392231</v>
       </c>
       <c r="C100">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>9.5000000000000001E-2</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -2782,16 +2782,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>-1.935901181258122E-2</v>
+        <v>-1.1110376952844589</v>
       </c>
       <c r="B101">
-        <v>5.450607599326629E-2</v>
+        <v>3.7175628070015359</v>
       </c>
       <c r="C101">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>9.5000000000000001E-2</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -2805,16 +2805,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>-2.22124911129069E-2</v>
+        <v>-1.1693567529951809</v>
       </c>
       <c r="B102">
-        <v>9.049430974125694E-2</v>
+        <v>3.8415452099713789</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -2828,16 +2828,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>-2.1273848395396311E-2</v>
+        <v>-1.2277277237811921</v>
       </c>
       <c r="B103">
-        <v>7.0395526550265597E-2</v>
+        <v>3.9710892320139011</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -2851,16 +2851,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>-2.0735858133655419E-2</v>
+        <v>-1.239920415121986</v>
       </c>
       <c r="B104">
-        <v>6.4320677341768648E-2</v>
+        <v>3.9994219677271068</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D104">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -2874,16 +2874,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>-2.038294463611821E-2</v>
+        <v>-1.2533302256091901</v>
       </c>
       <c r="B105">
-        <v>6.1048727627513753E-2</v>
+        <v>4.0313957336911148</v>
       </c>
       <c r="C105">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D105">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>-2.0123954877021399E-2</v>
+        <v>-1.268413680082636</v>
       </c>
       <c r="B106">
-        <v>5.8919821947992897E-2</v>
+        <v>4.0684323537401701</v>
       </c>
       <c r="C106">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -2920,16 +2920,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>-1.9920968776864528E-2</v>
+        <v>-0.66641367493350689</v>
       </c>
       <c r="B107">
-        <v>5.739111883650428E-2</v>
+        <v>2.8734029834544512</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -2943,16 +2943,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>-1.9754915463411349E-2</v>
+        <v>-0.77568749020054029</v>
       </c>
       <c r="B108">
-        <v>5.6224285763820173E-2</v>
+        <v>3.0719812700185729</v>
       </c>
       <c r="C108">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -2966,16 +2966,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>-1.961493167036794E-2</v>
+        <v>-0.8036458278679619</v>
       </c>
       <c r="B109">
-        <v>5.5295756291854722E-2</v>
+        <v>3.120213911761927</v>
       </c>
       <c r="C109">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -2989,16 +2989,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>-1.9494271230596539E-2</v>
+        <v>-0.82829590421925814</v>
       </c>
       <c r="B110">
-        <v>5.4534117979818893E-2</v>
+        <v>3.1618138661832229</v>
       </c>
       <c r="C110">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -3012,24 +3012,714 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>-1.933741480435644E-2</v>
+        <v>-0.83283695554289361</v>
       </c>
       <c r="B111">
-        <v>5.3621054320406418E-2</v>
+        <v>3.1693600271085871</v>
       </c>
       <c r="C111">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>1.438449888287663E-2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>-0.83749224618263673</v>
+      </c>
+      <c r="B112">
+        <v>3.1770487020651088</v>
+      </c>
+      <c r="C112">
+        <v>15</v>
+      </c>
+      <c r="D112">
+        <v>1.438449888287663E-2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>-0.84219017595882562</v>
+      </c>
+      <c r="B113">
+        <v>3.1846747815260228</v>
+      </c>
+      <c r="C113">
         <v>20</v>
       </c>
-      <c r="D111">
+      <c r="D113">
+        <v>1.438449888287663E-2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>-0.45478952786882187</v>
+      </c>
+      <c r="B114">
+        <v>2.4479867985599228</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>-0.50917113771302425</v>
+      </c>
+      <c r="B115">
+        <v>2.46476269385693</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>-0.52023114652574576</v>
+      </c>
+      <c r="B116">
+        <v>2.4520957461881259</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>-0.52767719311055394</v>
+      </c>
+      <c r="B117">
+        <v>2.425628506133553</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>-0.52858271899746723</v>
+      </c>
+      <c r="B118">
+        <v>2.4175087272266889</v>
+      </c>
+      <c r="C118">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>-0.52922023128578732</v>
+      </c>
+      <c r="B119">
+        <v>2.4071047558466301</v>
+      </c>
+      <c r="C119">
+        <v>15</v>
+      </c>
+      <c r="D119">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>-0.52934289880607965</v>
+      </c>
+      <c r="B120">
+        <v>2.3931424715423768</v>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>-0.2803604641037325</v>
+      </c>
+      <c r="B121">
+        <v>1.992187224411319</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>-0.30823278507883373</v>
+      </c>
+      <c r="B122">
+        <v>1.8657570682164699</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>-0.31291382150479541</v>
+      </c>
+      <c r="B123">
+        <v>1.8094266102736309</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>-0.31527585164410199</v>
+      </c>
+      <c r="B124">
+        <v>1.7371110369052969</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>-0.31537085527200159</v>
+      </c>
+      <c r="B125">
+        <v>1.7189316107126791</v>
+      </c>
+      <c r="C125">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>-0.3152622360041894</v>
+      </c>
+      <c r="B126">
+        <v>1.697161583014229</v>
+      </c>
+      <c r="C126">
+        <v>15</v>
+      </c>
+      <c r="D126">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>-0.31475304098818019</v>
+      </c>
+      <c r="B127">
+        <v>1.670021588869959</v>
+      </c>
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>-0.15467908907758449</v>
+      </c>
+      <c r="B128">
+        <v>1.4787675567904579</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>-0.17707927533453191</v>
+      </c>
+      <c r="B129">
+        <v>1.2650334734920221</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>-0.18209020313419599</v>
+      </c>
+      <c r="B130">
+        <v>1.1879502284983761</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>-0.18640003178139419</v>
+      </c>
+      <c r="B131">
+        <v>1.098432837494743</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>-0.18720863239670679</v>
+      </c>
+      <c r="B132">
+        <v>1.0773110636198331</v>
+      </c>
+      <c r="C132">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>-0.18806000621944821</v>
+      </c>
+      <c r="B133">
+        <v>1.052670412545635</v>
+      </c>
+      <c r="C133">
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>-0.18889933398669881</v>
+      </c>
+      <c r="B134">
+        <v>1.0229079245729049</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+      <c r="D134">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>-9.3625246756281089E-2</v>
+      </c>
+      <c r="B135">
+        <v>0.9218761617003578</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
         <v>0.1</v>
       </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>-0.1184800575220563</v>
+      </c>
+      <c r="B136">
+        <v>0.71626741158430618</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>0.1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>-0.12543596982070851</v>
+      </c>
+      <c r="B137">
+        <v>0.6561179673199995</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>0.1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>-0.13265284573514999</v>
+      </c>
+      <c r="B138">
+        <v>0.59622321122428046</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>0.1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>-0.13424678230848169</v>
+      </c>
+      <c r="B139">
+        <v>0.58375884857571358</v>
+      </c>
+      <c r="C139">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>0.1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>-0.13606213949128099</v>
+      </c>
+      <c r="B140">
+        <v>0.5700688399074223</v>
+      </c>
+      <c r="C140">
+        <v>15</v>
+      </c>
+      <c r="D140">
+        <v>0.1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>-0.13815274848449649</v>
+      </c>
+      <c r="B141">
+        <v>0.55479711538811427</v>
+      </c>
+      <c r="C141">
+        <v>20</v>
+      </c>
+      <c r="D141">
+        <v>0.1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" t="s">
         <v>7</v>
       </c>
     </row>
